--- a/target/test-classes/AdvancedSearchOptions.xlsx
+++ b/target/test-classes/AdvancedSearchOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranMohd-Kairos\EclipseFolder\Googleservice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047753B2-BF74-4A65-BB2B-5A2F7C8885C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280562BA-9518-4ABB-956F-EAFD865B9355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DB6F9B9-FA51-4BFC-B18B-38CFD2899763}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Kai-ros</t>
-  </si>
-  <si>
-    <t>Kai</t>
-  </si>
-  <si>
     <t>Kai OR ros</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>Kairos</t>
+  </si>
+  <si>
+    <t>Kaiross</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,16 +475,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
